--- a/data/ROL.xlsx
+++ b/data/ROL.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="ТУ" sheetId="1" r:id="rId1"/>
+    <sheet name="УСПД" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ТУ!$B$3:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ТУ!$A$3:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">УСПД!$A$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ПУ</t>
   </si>
@@ -43,46 +45,52 @@
     <t>Пользователь</t>
   </si>
   <si>
-    <t>Пароль</t>
-  </si>
-  <si>
     <t>Маршрут опроса</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Инкотекс - Меркурий 234</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>13.01.2025</t>
+    <t>04.02.2025</t>
   </si>
   <si>
-    <t>5</t>
+    <t>35</t>
   </si>
   <si>
-    <t>Инкотекс - Меркурий 230</t>
+    <t>20</t>
   </si>
   <si>
-    <t>1788770</t>
+    <t>Тип УСПД</t>
   </si>
   <si>
-    <t>868136033826838 (Эльстер Метроника - RTU-327)|Класс=Маршрут через промежуточное оборудование|Категория=Комбинированный|Приоритет (числовой, начиная с 0 -  высшего значения)=0|Класс=Маршрут через промежуточное оборудование</t>
+    <t>Миландр - Милур GSM/GPRS модем</t>
   </si>
   <si>
-    <t>222222</t>
+    <t>10.0.1.1:4002</t>
   </si>
   <si>
-    <t>1766967</t>
+    <t>10.0.1.1:4001</t>
   </si>
   <si>
-    <t>10.210.58.93:4002</t>
+    <t>44000022</t>
   </si>
   <si>
-    <t>1771441</t>
+    <t>44111135</t>
   </si>
   <si>
-    <t>10.210.58.120:4002</t>
+    <t>43222220</t>
+  </si>
+  <si>
+    <t>10.0.2.2:4001</t>
+  </si>
+  <si>
+    <t>352220000012345</t>
   </si>
 </sst>
 </file>
@@ -125,12 +133,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -175,6 +220,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -301,7 +359,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -310,50 +368,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -636,151 +715,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="12" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="30">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
+      <c r="B4" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:H6"/>
+  <autoFilter ref="A3:G6"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" sqref="B3"/>
+    <dataValidation showInputMessage="1" sqref="A3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -791,13 +855,94 @@
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B117829 B118685:B1048576</xm:sqref>
+          <xm:sqref>A4:A119514 A121309:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>[1]_Справочники!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B117830:B118684</xm:sqref>
+          <xm:sqref>A119515:A121308</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C3"/>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" sqref="A2 A1:B1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A12173 A12294:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>[1]_Справочники!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A12174:A12293</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
